--- a/data/JGI_Documents/JGI-MS-HRIS.xlsx
+++ b/data/JGI_Documents/JGI-MS-HRIS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -111,73 +111,73 @@
     <t xml:space="preserve">Family detail maintain</t>
   </si>
   <si>
+    <t xml:space="preserve">Training Request and Training Call Process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monthly Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attendance Summary Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Late In Early Out Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fowardable days in leave table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paid and unpaid flag in leave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default days in leave </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assign while creating profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service Type in leave assign</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carry forward and leave opening import and export in system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Travel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expense approval should reflect advance amount if taken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experience and Training History of employee should be maintained</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prabin and prabin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shift should have total hour and grace time for late in and early out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dll to import attendnace manually</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overtime approval system as leave assign</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loan Entry(apply) allow back date( bug)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ukesh need to check on payroll system </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redesign Asset table and issue table</t>
+  </si>
+  <si>
     <t xml:space="preserve">prabin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Training Request and Training Call Process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monthly Report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attendance Summary Report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Late In Early Out Report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fowardable days in leave table</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paid and unpaid flag in leave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Default days in leave </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assign while creating profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Service Type in leave assign</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carry forward and leave opening import and export in system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Travel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expense approval should reflect advance amount if taken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Experience and Training History of employee should be maintained</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prabin and prabin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shift should have total hour and grace time for late in and early out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dll to import attendnace manually</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overtime approval system as leave assign</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loan Entry(apply) allow back date( bug)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ukesh need to check on payroll system </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Redesign Asset table and issue table</t>
   </si>
   <si>
     <t xml:space="preserve">                   nepali date and english date </t>
@@ -275,7 +275,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -300,14 +300,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="13" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="13" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -327,16 +319,16 @@
   </sheetPr>
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B42" activeCellId="0" sqref="B42"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="84.4089068825911"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.63967611336032"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="85.1578947368421"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.74898785425101"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -634,7 +626,7 @@
         <v>28</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -647,10 +639,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -663,10 +655,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -679,7 +671,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -693,7 +685,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -707,7 +699,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -720,8 +712,8 @@
       <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>35</v>
+      <c r="B26" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -735,7 +727,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>22</v>
@@ -751,7 +743,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>25</v>
@@ -769,7 +761,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>20</v>
@@ -785,7 +777,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>20</v>
@@ -801,7 +793,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>25</v>
@@ -819,7 +811,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>25</v>
@@ -836,8 +828,8 @@
       <c r="A33" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>42</v>
+      <c r="B33" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -851,7 +843,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>25</v>
@@ -868,11 +860,11 @@
       <c r="A35" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>26</v>
@@ -886,8 +878,8 @@
       <c r="A36" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>46</v>
+      <c r="B36" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>20</v>
@@ -902,8 +894,8 @@
       <c r="A37" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>47</v>
+      <c r="B37" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>20</v>
@@ -918,8 +910,8 @@
       <c r="A38" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>48</v>
+      <c r="B38" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>20</v>
@@ -934,8 +926,8 @@
       <c r="A39" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="7" t="s">
-        <v>49</v>
+      <c r="B39" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>25</v>
@@ -944,7 +936,7 @@
         <v>26</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -954,11 +946,11 @@
       <c r="A40" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>

--- a/data/JGI_Documents/JGI-MS-HRIS.xlsx
+++ b/data/JGI_Documents/JGI-MS-HRIS.xlsx
@@ -320,15 +320,15 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="85.1578947368421"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="85.9109311740891"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.85425101214575"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
